--- a/biology/Médecine/Myopathie_congénitale_à_cores_centraux/Myopathie_congénitale_à_cores_centraux.xlsx
+++ b/biology/Médecine/Myopathie_congénitale_à_cores_centraux/Myopathie_congénitale_à_cores_centraux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Myopathie_cong%C3%A9nitale_%C3%A0_cores_centraux</t>
+          <t>Myopathie_congénitale_à_cores_centraux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La myopathie congénitale à cores centraux est une maladie musculaire génétique qui doit son nom à l'aspect au microscope du muscle. Le core est une petite zone de désorganisation cellulaire avec diminution de l'activité oxydative en rapport avec la disparition des mitochondries.
 Les manifestations cliniques permettent de distinguer grossièrement quatre types :
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Myopathie_cong%C3%A9nitale_%C3%A0_cores_centraux</t>
+          <t>Myopathie_congénitale_à_cores_centraux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>Incidence et Prévalence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Inconnue
 </t>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Myopathie_cong%C3%A9nitale_%C3%A0_cores_centraux</t>
+          <t>Myopathie_congénitale_à_cores_centraux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bien que cette maladie génétique semble hétérogène, deux gènes seulement ont été retrouvés impliqués dans cette maladie :
 Mutation du gène SEPN1 (en) 606210 situé sur le chromosome 1 codant la sélénoprotéine.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Myopathie_cong%C3%A9nitale_%C3%A0_cores_centraux</t>
+          <t>Myopathie_congénitale_à_cores_centraux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le diagnostic de myopathie congénitale à central core repose actuellement sur l’analyse de quelques fragments de muscle (biopsie musculaire) sur lesquels sont mis en évidence des aspects caractéristiques de cores en position centrale et parcourant toute la longueur de la fibre. Les enzymes musculaires sont normales ou très peu élevées. En complément de ces aspects histologiques, il est toujours recommandé de pratiquer un test de susceptibilité à l'hyperthermie maligne. Des études génétiques sont désormais possibles et cherchent à identifier des mutations dans le gène RYR1 (codant un récepteur à la ryanodine).
 </t>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Myopathie_cong%C3%A9nitale_%C3%A0_cores_centraux</t>
+          <t>Myopathie_congénitale_à_cores_centraux</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,8 +631,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mode de transmission
-Transmission autosomique dominante
+          <t>Mode de transmission</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Transmission autosomique dominante
 </t>
         </is>
       </c>
@@ -625,7 +648,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Myopathie_cong%C3%A9nitale_%C3%A0_cores_centraux</t>
+          <t>Myopathie_congénitale_à_cores_centraux</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,10 +666,12 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number: 118800[1]
-(en) GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 [2]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number: 118800
+(en) GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 
  Portail de la médecine                     </t>
         </is>
       </c>
